--- a/data-raw/fluxes/lf_05/lf_05_b_2018-12-16.xlsx
+++ b/data-raw/fluxes/lf_05/lf_05_b_2018-12-16.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/will/Documents/data_working/data_packages/hypoxia.flux.analysis.1/inst/extdata/fluxes/lf_05/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/will/Dropbox (Partners HealthCare)/Copeland.2021.hypoxia.flux/data-raw/fluxes/lf_05/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E016384-40E4-2141-95E8-B9CB6D076AAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACE26ED-B047-AE47-BEA7-EAFFEFD741F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10780" yWindow="2460" windowWidth="25600" windowHeight="15540" xr2:uid="{1D4C4C2F-7A99-D141-A4DB-2424DC3A3300}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -196,9 +196,6 @@
     <t>2 Valine</t>
   </si>
   <si>
-    <t>treatment</t>
-  </si>
-  <si>
     <t>21%</t>
   </si>
   <si>
@@ -210,15 +207,12 @@
   <si>
     <t>oxygen</t>
   </si>
-  <si>
-    <t>none</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -564,193 +558,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0473DBDA-133C-8E46-809A-4027CD08C62D}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="B2">
+        <v>-24</v>
+      </c>
+      <c r="C2">
+        <v>39.9343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>51.9985</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>51.680900000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>48</v>
+      </c>
+      <c r="C5">
+        <v>51.492899999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6">
+        <v>72</v>
+      </c>
+      <c r="C6">
+        <v>51.234200000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7">
+        <v>96</v>
+      </c>
+      <c r="C7">
+        <v>51.002099999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2">
+      <c r="B8">
         <v>-24</v>
       </c>
-      <c r="D2">
-        <v>39.9343</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="C8">
+        <v>39.613399999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3">
+      <c r="B9">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>51.9985</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
+      <c r="C9">
+        <v>51.671599999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4">
+      <c r="B10">
         <v>24</v>
       </c>
-      <c r="D4">
-        <v>51.680900000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="C10">
+        <v>51.472200000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5">
+      <c r="B11">
         <v>48</v>
       </c>
-      <c r="D5">
-        <v>51.492899999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
+      <c r="C11">
+        <v>51.3123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6">
+      <c r="B12">
         <v>72</v>
       </c>
-      <c r="D6">
-        <v>51.234200000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
+      <c r="C12">
+        <v>51.094200000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7">
+      <c r="B13">
         <v>96</v>
       </c>
-      <c r="D7">
-        <v>51.002099999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8">
-        <v>-24</v>
-      </c>
-      <c r="D8">
-        <v>39.613399999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>51.671599999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10">
-        <v>24</v>
-      </c>
-      <c r="D10">
-        <v>51.472200000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11">
-        <v>48</v>
-      </c>
-      <c r="D11">
-        <v>51.3123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12">
-        <v>72</v>
-      </c>
-      <c r="D12">
-        <v>51.094200000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="C13">
-        <v>96</v>
-      </c>
-      <c r="D13">
         <v>50.8461</v>
       </c>
     </row>
@@ -767,11 +722,11 @@
       <selection activeCell="A2" sqref="A2:A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -789,7 +744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -800,7 +755,7 @@
         <v>208356</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -812,7 +767,7 @@
         <v>8611330</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -824,7 +779,7 @@
         <v>16420844</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -836,7 +791,7 @@
         <v>31236574</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -848,7 +803,7 @@
         <v>63895900</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -859,7 +814,7 @@
         <v>121337376</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -876,7 +831,7 @@
         <v>3037208</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -894,7 +849,7 @@
         <v>3079632</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -912,7 +867,7 @@
         <v>3971910</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -930,7 +885,7 @@
         <v>6106516</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -948,7 +903,7 @@
         <v>5543732</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -966,7 +921,7 @@
         <v>6285672</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -984,7 +939,7 @@
         <v>12284135</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1002,7 +957,7 @@
         <v>13408403</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1020,7 +975,7 @@
         <v>11725496</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1038,7 +993,7 @@
         <v>22396176</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1056,7 +1011,7 @@
         <v>21038432</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1074,7 +1029,7 @@
         <v>20053320</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1092,7 +1047,7 @@
         <v>29159476</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1110,7 +1065,7 @@
         <v>32768194</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1128,7 +1083,7 @@
         <v>35668268</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1146,7 +1101,7 @@
         <v>3338020</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1164,7 +1119,7 @@
         <v>4543009</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1182,7 +1137,7 @@
         <v>4074200</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1200,7 +1155,7 @@
         <v>5787815</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1218,7 +1173,7 @@
         <v>3268459</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1236,7 +1191,7 @@
         <v>4003658</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1254,7 +1209,7 @@
         <v>5948166</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1272,7 +1227,7 @@
         <v>6669043</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1290,7 +1245,7 @@
         <v>6886490</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1308,7 +1263,7 @@
         <v>11706660</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1326,7 +1281,7 @@
         <v>8556811</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1344,7 +1299,7 @@
         <v>7470151</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1362,7 +1317,7 @@
         <v>11932352</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1380,7 +1335,7 @@
         <v>10278970</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -1411,11 +1366,11 @@
       <selection activeCell="A2" sqref="A2:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1427,7 +1382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1438,7 +1393,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1449,7 +1404,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1460,7 +1415,7 @@
         <v>0.27339999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1471,7 +1426,7 @@
         <v>0.40200000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1482,7 +1437,7 @@
         <v>0.54190000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1493,7 +1448,7 @@
         <v>0.69110000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1504,7 +1459,7 @@
         <v>1.0015000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1515,7 +1470,7 @@
         <v>1.2918000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1526,7 +1481,7 @@
         <v>0.76619999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1538,7 +1493,7 @@
         <v>0.79459999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1550,7 +1505,7 @@
         <v>0.77900000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1562,7 +1517,7 @@
         <v>0.79190000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1574,7 +1529,7 @@
         <v>0.7833</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1586,7 +1541,7 @@
         <v>0.76349999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1598,7 +1553,7 @@
         <v>0.77639999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1610,7 +1565,7 @@
         <v>0.74570000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1622,7 +1577,7 @@
         <v>0.7873</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1634,7 +1589,7 @@
         <v>0.74590000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1646,7 +1601,7 @@
         <v>0.69689999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1658,7 +1613,7 @@
         <v>0.79339999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1670,7 +1625,7 @@
         <v>0.70379999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1682,7 +1637,7 @@
         <v>0.62680000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1694,7 +1649,7 @@
         <v>0.65780000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1706,7 +1661,7 @@
         <v>0.79469999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1718,7 +1673,7 @@
         <v>0.75990000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1730,7 +1685,7 @@
         <v>0.78059999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1742,7 +1697,7 @@
         <v>0.78390000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1754,7 +1709,7 @@
         <v>0.7782</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1766,7 +1721,7 @@
         <v>0.86580000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1778,7 +1733,7 @@
         <v>0.80049999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1790,7 +1745,7 @@
         <v>0.76239999999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1802,7 +1757,7 @@
         <v>0.77900000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1814,7 +1769,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1826,7 +1781,7 @@
         <v>0.78359999999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1838,7 +1793,7 @@
         <v>0.77939999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -1850,7 +1805,7 @@
         <v>0.76629999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1862,7 +1817,7 @@
         <v>0.77100000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1887,11 +1842,11 @@
       <selection activeCell="A2" sqref="A2:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1903,7 +1858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1914,7 +1869,7 @@
         <v>121144448</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1925,7 +1880,7 @@
         <v>149032672</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1936,7 +1891,7 @@
         <v>193203792</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1947,7 +1902,7 @@
         <v>295920736</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1958,7 +1913,7 @@
         <v>502395456</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1969,7 +1924,7 @@
         <v>788453696</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1980,7 +1935,7 @@
         <v>1419433984</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1991,7 +1946,7 @@
         <v>2312951040</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2002,7 +1957,7 @@
         <v>125405520</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2014,7 +1969,7 @@
         <v>123613832</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2026,7 +1981,7 @@
         <v>118245176</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2038,7 +1993,7 @@
         <v>167858528</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2050,7 +2005,7 @@
         <v>173464064</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2062,7 +2017,7 @@
         <v>156247280</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -2074,7 +2029,7 @@
         <v>280199424</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2086,7 +2041,7 @@
         <v>258646064</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2098,7 +2053,7 @@
         <v>278669920</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -2110,7 +2065,7 @@
         <v>539175552</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2122,7 +2077,7 @@
         <v>501193344</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2134,7 +2089,7 @@
         <v>497744416</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2146,7 +2101,7 @@
         <v>915053504</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2158,7 +2113,7 @@
         <v>822307968</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2170,7 +2125,7 @@
         <v>880751040</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2182,7 +2137,7 @@
         <v>117152328</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -2194,7 +2149,7 @@
         <v>125484208</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2206,7 +2161,7 @@
         <v>126930232</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2218,7 +2173,7 @@
         <v>148522192</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2230,7 +2185,7 @@
         <v>145278672</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -2242,7 +2197,7 @@
         <v>143702096</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2254,7 +2209,7 @@
         <v>192928032</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2266,7 +2221,7 @@
         <v>172995280</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -2278,7 +2233,7 @@
         <v>171895488</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -2290,7 +2245,7 @@
         <v>326428960</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -2302,7 +2257,7 @@
         <v>277442144</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -2314,7 +2269,7 @@
         <v>243612688</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -2326,7 +2281,7 @@
         <v>435717120</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -2338,7 +2293,7 @@
         <v>392184096</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -2363,11 +2318,11 @@
       <selection activeCell="A2" sqref="A2:A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2379,7 +2334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2390,7 +2345,7 @@
         <v>46589364</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2401,7 +2356,7 @@
         <v>74870864</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2412,7 +2367,7 @@
         <v>91095296</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2423,7 +2378,7 @@
         <v>146093760</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2434,7 +2389,7 @@
         <v>256340672</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2445,7 +2400,7 @@
         <v>379349664</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2456,7 +2411,7 @@
         <v>504251520</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2467,7 +2422,7 @@
         <v>602019648</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2478,7 +2433,7 @@
         <v>360970880</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2489,7 +2444,7 @@
         <v>365589120</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2500,7 +2455,7 @@
         <v>363011712</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2511,7 +2466,7 @@
         <v>355901440</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2522,7 +2477,7 @@
         <v>356280160</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2533,7 +2488,7 @@
         <v>346915136</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -2544,7 +2499,7 @@
         <v>342002688</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2555,7 +2510,7 @@
         <v>310492768</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2566,7 +2521,7 @@
         <v>343346720</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -2577,7 +2532,7 @@
         <v>335554240</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2588,7 +2543,7 @@
         <v>317616704</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2599,7 +2554,7 @@
         <v>309399712</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2610,7 +2565,7 @@
         <v>359412896</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2621,7 +2576,7 @@
         <v>346885024</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2632,7 +2587,7 @@
         <v>353412096</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2643,7 +2598,7 @@
         <v>398197408</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -2654,7 +2609,7 @@
         <v>355371328</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2665,7 +2620,7 @@
         <v>381518656</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2676,7 +2631,7 @@
         <v>377743552</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2687,7 +2642,7 @@
         <v>349350336</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -2698,7 +2653,7 @@
         <v>362828096</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2709,7 +2664,7 @@
         <v>357285696</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2720,7 +2675,7 @@
         <v>314437376</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -2731,7 +2686,7 @@
         <v>362854016</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -2742,7 +2697,7 @@
         <v>344175616</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -2753,7 +2708,7 @@
         <v>335501664</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -2764,7 +2719,7 @@
         <v>347338112</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -2775,7 +2730,7 @@
         <v>377957792</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -2786,7 +2741,7 @@
         <v>349076992</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -2797,7 +2752,7 @@
         <v>365340224</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -2808,7 +2763,7 @@
         <v>367690528</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -2819,7 +2774,7 @@
         <v>382795808</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -2830,7 +2785,7 @@
         <v>393516352</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -2841,7 +2796,7 @@
         <v>401686208</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -2852,7 +2807,7 @@
         <v>389159552</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -2863,7 +2818,7 @@
         <v>409282624</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -2874,7 +2829,7 @@
         <v>365699520</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -2885,7 +2840,7 @@
         <v>357166688</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -2896,7 +2851,7 @@
         <v>362547520</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -2907,7 +2862,7 @@
         <v>352667424</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -2918,7 +2873,7 @@
         <v>359025760</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -2929,7 +2884,7 @@
         <v>398961920</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -2940,7 +2895,7 @@
         <v>363032480</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -2951,7 +2906,7 @@
         <v>364152672</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -2975,11 +2930,11 @@
       <selection activeCell="A2" sqref="A2:A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3123,7 +3078,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3260,7 +3215,7 @@
         <v>36.781799999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3403,7 +3358,7 @@
         <v>86.798400000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3546,7 +3501,7 @@
         <v>372.51620000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3689,7 +3644,7 @@
         <v>950.47239999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3832,7 +3787,7 @@
         <v>2412.9944</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3969,7 +3924,7 @@
         <v>1760.0232000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -4106,7 +4061,7 @@
         <v>1809.0732</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -4243,7 +4198,7 @@
         <v>1824.5414000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -4383,7 +4338,7 @@
         <v>2238.9005999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -4520,7 +4475,7 @@
         <v>1831.3761999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -4660,7 +4615,7 @@
         <v>2196.9512</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -4797,7 +4752,7 @@
         <v>1871.0645999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -4937,7 +4892,7 @@
         <v>2203.0671000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -5074,7 +5029,7 @@
         <v>1773.4095</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -5214,7 +5169,7 @@
         <v>2055.4625999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -5354,7 +5309,7 @@
         <v>2168.8000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -5491,7 +5446,7 @@
         <v>1838.9962</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -5631,7 +5586,7 @@
         <v>1850.6706999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -5771,7 +5726,7 @@
         <v>2083.3647000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -5911,7 +5866,7 @@
         <v>2069.6174000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -6048,7 +6003,7 @@
         <v>1998.5244</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -6188,7 +6143,7 @@
         <v>2173.1356999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -6328,7 +6283,7 @@
         <v>2168.5376000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -6468,7 +6423,7 @@
         <v>2169.6921000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -6605,7 +6560,7 @@
         <v>2075.9762999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -6742,7 +6697,7 @@
         <v>1908.5975000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -6879,7 +6834,7 @@
         <v>1912.7942</v>
       </c>
     </row>
-    <row r="29" spans="1:48">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -7016,7 +6971,7 @@
         <v>1894.9982</v>
       </c>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -7153,7 +7108,7 @@
         <v>2011.5209</v>
       </c>
     </row>
-    <row r="31" spans="1:48">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -7293,7 +7248,7 @@
         <v>2214.6037999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:48">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -7433,7 +7388,7 @@
         <v>2039.0923</v>
       </c>
     </row>
-    <row r="33" spans="1:48">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -7573,7 +7528,7 @@
         <v>2157.509</v>
       </c>
     </row>
-    <row r="34" spans="1:48">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -7713,7 +7668,7 @@
         <v>2209.9695000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:48">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -7853,7 +7808,7 @@
         <v>2211.5383000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:48">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -7993,7 +7948,7 @@
         <v>2206.4656</v>
       </c>
     </row>
-    <row r="37" spans="1:48">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -8133,7 +8088,7 @@
         <v>2035.09</v>
       </c>
     </row>
-    <row r="38" spans="1:48">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -8273,7 +8228,7 @@
         <v>2158.8362000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:48">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -8413,7 +8368,7 @@
         <v>2121.5852</v>
       </c>
     </row>
-    <row r="40" spans="1:48">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -8553,7 +8508,7 @@
         <v>2157.8472000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:48">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -8693,7 +8648,7 @@
         <v>2123.2051000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:48">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -8830,7 +8785,7 @@
         <v>2106.4321</v>
       </c>
     </row>
-    <row r="43" spans="1:48">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -8967,7 +8922,7 @@
         <v>2139.7363</v>
       </c>
     </row>
-    <row r="44" spans="1:48">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -9107,7 +9062,7 @@
         <v>2183.2087000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:48">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -9247,7 +9202,7 @@
         <v>2206.2932000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:48">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -9387,7 +9342,7 @@
         <v>2240.6016</v>
       </c>
     </row>
-    <row r="47" spans="1:48">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -9524,7 +9479,7 @@
         <v>1877.9813999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:48">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -9661,7 +9616,7 @@
         <v>1974.1704999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:48">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -9801,7 +9756,7 @@
         <v>2182.1621</v>
       </c>
     </row>
-    <row r="50" spans="1:48">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -9938,7 +9893,7 @@
         <v>1779.5083999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:48">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -10075,7 +10030,7 @@
         <v>2160.8357000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:48">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -10215,7 +10170,7 @@
         <v>1665.2950000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:48">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -10355,7 +10310,7 @@
         <v>1686.2466999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:48">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -10495,7 +10450,7 @@
         <v>1690.9614999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:48">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -10635,7 +10590,7 @@
         <v>1880.5488</v>
       </c>
     </row>
-    <row r="56" spans="1:48">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -10772,7 +10727,7 @@
         <v>2125.5713000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:48">
+    <row r="57" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -10909,7 +10864,7 @@
         <v>2141.7982999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:48">
+    <row r="58" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -11046,7 +11001,7 @@
         <v>1896.7492999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:48">
+    <row r="59" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -11183,7 +11138,7 @@
         <v>1771.4719</v>
       </c>
     </row>
-    <row r="60" spans="1:48">
+    <row r="60" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -11320,7 +11275,7 @@
         <v>1959.636</v>
       </c>
     </row>
-    <row r="61" spans="1:48">
+    <row r="61" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -11457,7 +11412,7 @@
         <v>1829.1637000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:48">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -11594,7 +11549,7 @@
         <v>2078.3442</v>
       </c>
     </row>
-    <row r="63" spans="1:48">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>4</v>
       </c>
